--- a/data/excel_files_reduced_clean/test_excel_1_reduced_clean.xlsx
+++ b/data/excel_files_reduced_clean/test_excel_1_reduced_clean.xlsx
@@ -490,13 +490,11 @@
           <t>horizontal_column_1</t>
         </is>
       </c>
-      <c r="C12">
-        <f>B3</f>
-        <v/>
-      </c>
-      <c r="D12">
-        <f>C3</f>
-        <v/>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -506,11 +504,11 @@
         </is>
       </c>
       <c r="C13">
-        <f>B4</f>
+        <f>C12*2</f>
         <v/>
       </c>
       <c r="D13">
-        <f>C4</f>
+        <f>D12*2</f>
         <v/>
       </c>
       <c r="G13" t="inlineStr">
@@ -577,7 +575,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,43 +625,6 @@
         <v/>
       </c>
     </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>col1</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>col2</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11">
-        <f>B2</f>
-        <v/>
-      </c>
-      <c r="B11">
-        <f>C2</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <f>B3</f>
-        <v/>
-      </c>
-      <c r="B12">
-        <f>C3</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_files_reduced_clean/test_excel_1_reduced_clean.xlsx
+++ b/data/excel_files_reduced_clean/test_excel_1_reduced_clean.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/excel_files_reduced_clean/test_excel_1_reduced_clean.xlsx
+++ b/data/excel_files_reduced_clean/test_excel_1_reduced_clean.xlsx
@@ -1,35 +1,84 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced_clean/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC7D3D1-940D-704C-86F9-77FDD3997ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+  <si>
+    <t>col_1</t>
+  </si>
+  <si>
+    <t>col_2</t>
+  </si>
+  <si>
+    <t>col_3</t>
+  </si>
+  <si>
+    <t>col_4</t>
+  </si>
+  <si>
+    <t>horizontal_column_1</t>
+  </si>
+  <si>
+    <t>horizontal_column_2</t>
+  </si>
+  <si>
+    <t>horizontal_col_1</t>
+  </si>
+  <si>
+    <t>horizontal_col_2</t>
+  </si>
+  <si>
+    <t>horizontal_col_3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -48,80 +97,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -409,159 +399,125 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>col_1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>col_2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>col_3</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>col_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="B3" t="n">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
         <f>Sheet1!B3+Sheet1!C3</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="E3">
         <f>SUM(Sheet1!B3:D3)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>4</v>
       </c>
       <c r="D4">
         <f>Sheet1!B4+Sheet1!C4</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="E4">
         <f>SUM(Sheet1!B4:D4)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>horizontal_column_1</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>horizontal_column_2</t>
-        </is>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>5</v>
       </c>
       <c r="C13">
         <f>C12*2</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="D13">
         <f>D12*2</f>
-        <v/>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>col_1</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>col_2</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>col_3</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>col_4</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="G14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I13" t="s">
+        <v>2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
       <c r="I14">
         <f>Sheet1!G14+Sheet1!H14</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="J14">
-        <f>SUM(Sheet1!G14:Sheet1!I14)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="G15" t="n">
+        <f>SUM(Sheet1!G14:'Sheet1'!I14)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="G15">
         <v>3</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H15">
         <v>4</v>
       </c>
       <c r="I15">
         <f>Sheet1!G15+Sheet1!H15</f>
-        <v/>
+        <v>7</v>
       </c>
       <c r="J15">
-        <f>SUM(Sheet1!G15:Sheet1!I15)</f>
-        <v/>
+        <f>SUM(Sheet1!G15:'Sheet1'!I15)</f>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -570,59 +526,46 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1"/>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>horizontal_col_1</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>horizontal_col_2</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>horizontal_col_3</t>
-        </is>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <f>B2+B3</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="C4">
         <f>C2+C3</f>
-        <v/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/data/excel_files_reduced_clean/test_excel_1_reduced_clean.xlsx
+++ b/data/excel_files_reduced_clean/test_excel_1_reduced_clean.xlsx
@@ -1,84 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrislittle/GitHub/speedsheet/excel-2-python/data/excel_files_reduced_clean/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC7D3D1-940D-704C-86F9-77FDD3997ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
-  <si>
-    <t>col_1</t>
-  </si>
-  <si>
-    <t>col_2</t>
-  </si>
-  <si>
-    <t>col_3</t>
-  </si>
-  <si>
-    <t>col_4</t>
-  </si>
-  <si>
-    <t>horizontal_column_1</t>
-  </si>
-  <si>
-    <t>horizontal_column_2</t>
-  </si>
-  <si>
-    <t>horizontal_col_1</t>
-  </si>
-  <si>
-    <t>horizontal_col_2</t>
-  </si>
-  <si>
-    <t>horizontal_col_3</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -97,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -399,125 +409,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="1"/>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>col_1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>col_2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>col_3</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>col_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3">
         <f>Sheet1!B3+Sheet1!C3</f>
-        <v>3</v>
+        <v/>
       </c>
       <c r="E3">
         <f>SUM(Sheet1!B3:D3)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4">
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="n">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4">
         <f>Sheet1!B4+Sheet1!C4</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="E4">
         <f>SUM(Sheet1!B4:D4)</f>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12">
+        <v/>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6"/>
+    <row r="7"/>
+    <row r="8"/>
+    <row r="9"/>
+    <row r="10"/>
+    <row r="11"/>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>horizontal_column_1</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>5</v>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>horizontal_column_2</t>
+        </is>
       </c>
       <c r="C13">
         <f>C12*2</f>
-        <v>2</v>
+        <v/>
       </c>
       <c r="D13">
         <f>D12*2</f>
-        <v>4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
+        <v/>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>col_1</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>col_2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>col_3</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>col_4</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="G14" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>2</v>
       </c>
       <c r="I14">
         <f>Sheet1!G14+Sheet1!H14</f>
+        <v/>
+      </c>
+      <c r="J14">
+        <f>SUM(Sheet1!G14:Sheet1!I14)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="G15" t="n">
         <v>3</v>
       </c>
-      <c r="J14">
-        <f>SUM(Sheet1!G14:'Sheet1'!I14)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>4</v>
       </c>
       <c r="I15">
         <f>Sheet1!G15+Sheet1!H15</f>
-        <v>7</v>
+        <v/>
       </c>
       <c r="J15">
-        <f>SUM(Sheet1!G15:'Sheet1'!I15)</f>
-        <v>14</v>
+        <f>SUM(Sheet1!G15:Sheet1!I15)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -526,46 +570,59 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>horizontal_col_1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>horizontal_col_2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>8</v>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>horizontal_col_3</t>
+        </is>
       </c>
       <c r="B4">
         <f>B2+B3</f>
-        <v>5</v>
+        <v/>
       </c>
       <c r="C4">
         <f>C2+C3</f>
-        <v>7</v>
+        <v/>
       </c>
     </row>
   </sheetData>
